--- a/Lectures/Lecture 21/Markowitz.xlsx
+++ b/Lectures/Lecture 21/Markowitz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianaoc/Documents/Courses/STOR 305/Fall 2019/Excel spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 305\STOR305_WEBSITE\Lectures\Lecture 21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9D2488A-1960-C94C-A979-EF93FB2CC95F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EE4220-B3C4-4CE8-BFCB-433085EF2FFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16540" xr2:uid="{93155DBC-8615-9448-ADC5-78321AE95F35}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{93155DBC-8615-9448-ADC5-78321AE95F35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,10 +49,19 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -663,27 +672,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED9AE03-99C4-0840-A6A8-1BD26668D2C5}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="7" max="7" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -691,7 +700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -699,7 +708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -707,7 +716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -715,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
@@ -729,7 +738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -749,7 +758,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>0.4</v>
       </c>
@@ -769,7 +778,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>0.3</v>
       </c>
@@ -789,7 +798,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>0.6</v>
       </c>
@@ -809,7 +818,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="21" t="s">
         <v>14</v>
       </c>
@@ -817,7 +826,7 @@
       <c r="C15" s="14"/>
       <c r="D15" s="15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <f>G10</f>
         <v>8.9999999999999993E-3</v>
@@ -835,7 +844,7 @@
         <v>8.6324967419628938E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <f>B16</f>
         <v>4.6475800154489001E-3</v>
@@ -853,7 +862,7 @@
         <v>1.3001922934704696E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <f>C16</f>
         <v>5.6920997883030825E-3</v>
@@ -871,7 +880,7 @@
         <v>1.2132600710482482E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <f>D16</f>
         <v>8.6324967419628938E-3</v>
@@ -889,12 +898,12 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -903,16 +912,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="1">
-        <f>E22</f>
+        <f>B22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -921,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>8</v>
       </c>
